--- a/Task_1_Credentials.xlsx
+++ b/Task_1_Credentials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ersin\Desktop\Automation\2. Selenium\TASK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ersin\cydeo-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>user1</t>
   </si>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>salesmanager104</t>
-  </si>
-  <si>
-    <t>UserUser124</t>
-  </si>
-  <si>
-    <t>UserUser125</t>
-  </si>
-  <si>
-    <t>UserUser126</t>
-  </si>
-  <si>
-    <t>UserUser127</t>
   </si>
 </sst>
 </file>
@@ -402,7 +390,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -504,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -520,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
